--- a/results/artist-concert/experiment_2019-05-18-20-02/average_validation_result_table_artist-concert.xlsx
+++ b/results/artist-concert/experiment_2019-05-18-20-02/average_validation_result_table_artist-concert.xlsx
@@ -210,13 +210,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFCE181E"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +227,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE181E"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -264,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,15 +287,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,7 +375,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,61 +584,62 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="B4" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O4" s="0" t="n">
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>480</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="0" t="n">
+      <c r="R4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="2" t="n">
         <v>86.9</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="2" t="n">
         <v>56.56</v>
       </c>
     </row>
@@ -818,61 +821,62 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>25</v>
-      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O8" s="0" t="n">
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O8" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="0" t="n">
+      <c r="P8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="2" t="n">
         <v>87.02</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="2" t="n">
         <v>58.86</v>
       </c>
     </row>
@@ -995,61 +999,62 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="B11" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O11" s="0" t="n">
+      <c r="L11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O11" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="0" t="n">
+      <c r="P11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="2" t="n">
         <v>86.79</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="2" t="n">
         <v>58.11</v>
       </c>
     </row>
@@ -1231,61 +1236,62 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K15" s="0" t="n">
+      <c r="B15" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="N15" s="0" t="n">
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N15" s="2" t="n">
         <v>100</v>
       </c>
       <c r="O15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="0" t="n">
+      <c r="P15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="2" t="n">
         <v>88.15</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="2" t="n">
         <v>64.51</v>
       </c>
     </row>
@@ -1408,61 +1414,62 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K18" s="0" t="n">
+      <c r="C18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O18" s="0" t="n">
+      <c r="L18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="0" t="n">
+      <c r="P18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="2" t="n">
         <v>88.45</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18" s="2" t="n">
         <v>65.49</v>
       </c>
     </row>
@@ -1644,120 +1651,122 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>0.25</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K22" s="0" t="n">
+      <c r="D22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O22" s="0" t="n">
+      <c r="L22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="0" t="n">
+      <c r="P22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="2" t="n">
         <v>88.27</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="T22" s="2" t="n">
         <v>65.66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K23" s="0" t="n">
+      <c r="D23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>1024</v>
       </c>
-      <c r="N23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O23" s="0" t="n">
+      <c r="N23" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O23" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="0" t="n">
+      <c r="P23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="2" t="n">
         <v>88.51</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="T23" s="2" t="n">
         <v>66</v>
       </c>
     </row>
@@ -1998,61 +2007,62 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="K28" s="0" t="n">
+      <c r="E28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="O28" s="0" t="n">
+      <c r="L28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>1024</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O28" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="0" t="n">
+      <c r="P28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="2" t="n">
         <v>88.33</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="T28" s="2" t="n">
         <v>65.95</v>
       </c>
     </row>
@@ -2212,7 +2222,7 @@
       <c r="M31" s="4" t="n">
         <v>1024</v>
       </c>
-      <c r="N31" s="6" t="n">
+      <c r="N31" s="4" t="n">
         <v>400</v>
       </c>
       <c r="O31" s="4" t="n">
